--- a/simulations/cleaned_inclusion_exclusion/Chou_2004 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Chou_2004 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>688</v>
       </c>
       <c r="C2">
-        <v>549</v>
+        <v>681</v>
       </c>
       <c r="D2">
-        <v>618.5</v>
+        <v>684.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>736</v>
       </c>
       <c r="C3">
-        <v>523</v>
+        <v>663</v>
       </c>
       <c r="D3">
-        <v>629.5</v>
+        <v>699.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>913</v>
       </c>
       <c r="C4">
-        <v>1018</v>
+        <v>1072</v>
       </c>
       <c r="D4">
-        <v>965.5</v>
+        <v>992.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>1253</v>
+        <v>141</v>
       </c>
       <c r="D5">
-        <v>638.5</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>221</v>
       </c>
       <c r="C6">
-        <v>1190</v>
+        <v>532</v>
       </c>
       <c r="D6">
-        <v>705.5</v>
+        <v>376.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>987</v>
       </c>
       <c r="C7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>580.5</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -495,10 +495,10 @@
         <v>649</v>
       </c>
       <c r="C8">
-        <v>1167</v>
+        <v>126</v>
       </c>
       <c r="D8">
-        <v>1167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -509,10 +509,10 @@
         <v>985</v>
       </c>
       <c r="C9">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>578.5</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>1255</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>642</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,7 +537,7 @@
         <v>572.875</v>
       </c>
       <c r="C11">
-        <v>811.2222222222222</v>
+        <v>377.8888888888889</v>
       </c>
     </row>
   </sheetData>
